--- a/biorefineries/cane/results/oilcane_spearman_9.xlsx
+++ b/biorefineries/cane/results/oilcane_spearman_9.xlsx
@@ -740,65 +740,65 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01255214740427077</v>
+        <v>0.01224979652199186</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.02673709003505384</v>
+        <v>-0.02664055152962206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006075327334374439</v>
+        <v>0.005932306029292241</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06182611686803148</v>
+        <v>0.06196262907050516</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02250651945515154</v>
+        <v>0.02241259308850372</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>-0.01272121622403713</v>
+        <v>-0.01206181488247259</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03905626138432969</v>
+        <v>0.03934439072577563</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.007132273129295728</v>
+        <v>0.007012457752498309</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01971415027105633</v>
+        <v>0.02097743885118761</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.01966086374537813</v>
+        <v>-0.01894740642189625</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.01966086374537813</v>
+        <v>-0.01894740642189625</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02000286338180001</v>
+        <v>-0.01922494636899785</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01966086374537813</v>
+        <v>-0.01894740642189625</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.01966086374537813</v>
+        <v>-0.01894740642189625</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>-0.002461608288044164</v>
+        <v>-0.001974572142982885</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.01710148051218887</v>
+        <v>-0.01585947116237885</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01710148051218887</v>
+        <v>-0.01585947116237885</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.01710148051218887</v>
+        <v>-0.01585947116237885</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.01710148051218887</v>
+        <v>-0.01585947116237885</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -806,10 +806,10 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>0.02432984018172182</v>
+        <v>0.02422553290502131</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.009231543307461013</v>
+        <v>0.01464334205773368</v>
       </c>
     </row>
     <row r="5">
@@ -820,65 +820,65 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08469233640245458</v>
+        <v>0.08470991110039644</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.1578818836996691</v>
+        <v>-0.1580099987363999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01381066119586463</v>
+        <v>-0.01361305907252236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5250808874860207</v>
+        <v>0.5247930460477218</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1073619760206543</v>
+        <v>0.1074614663784586</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>-0.3820661324101555</v>
+        <v>-0.3795496110859844</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1049155371530489</v>
+        <v>0.1049787981831519</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>-0.02566198541028734</v>
+        <v>-0.02548274857130994</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06583916118712015</v>
+        <v>0.06381180220635495</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03937586508898419</v>
+        <v>-0.03198928591957143</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.03937586508898419</v>
+        <v>-0.03198928591957143</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.03952637595946561</v>
+        <v>-0.0319693826227753</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.03937586508898419</v>
+        <v>-0.03198928591957143</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.03937586508898419</v>
+        <v>-0.03198928591957143</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.174391198239648</v>
+        <v>0.1749479229019169</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.001081977067682444</v>
+        <v>0.009410794456431778</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.001081977067682444</v>
+        <v>0.009410794456431778</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.001081977067682444</v>
+        <v>0.009410794456431778</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.001081977067682444</v>
+        <v>0.009410794456431778</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -886,10 +886,10 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>0.04345752972923517</v>
+        <v>0.0437447376217895</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02829687253176926</v>
+        <v>0.03671341577253662</v>
       </c>
     </row>
     <row r="6">
@@ -900,65 +900,65 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.006890594925707832</v>
+        <v>-0.007025667449026697</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.003107016121111378</v>
+        <v>-0.003055953914238156</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.009823088747401343</v>
+        <v>-0.009992326767693068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02452318526130196</v>
+        <v>0.02468820991552839</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004569351805535178</v>
+        <v>0.0003548472141938885</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>-0.02327267451089257</v>
+        <v>-0.02250929475637179</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006328324968715233</v>
+        <v>0.006726276557051061</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>-0.006409623917580636</v>
+        <v>-0.006546851397874054</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01791109895737111</v>
+        <v>-0.01609984435891204</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002332381290183607</v>
+        <v>0.003346077829843113</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002332381290183607</v>
+        <v>0.003346077829843113</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001592866952742289</v>
+        <v>0.002353380574135223</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002332381290183607</v>
+        <v>0.003346077829843113</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002332381290183607</v>
+        <v>0.003346077829843113</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.007413293943302466</v>
+        <v>0.007725765237030608</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002684846789285829</v>
+        <v>0.003505316876212675</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002684846789285829</v>
+        <v>0.003505316876212675</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002684846789285829</v>
+        <v>0.003505316876212675</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002684846789285829</v>
+        <v>0.003505316876212675</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -966,10 +966,10 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>0.003889300405099028</v>
+        <v>0.003819907640796305</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01311865263809064</v>
+        <v>0.01243729729749189</v>
       </c>
     </row>
     <row r="7">
@@ -980,65 +980,65 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4189897635709615</v>
+        <v>0.4200950202278008</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.204004036341482</v>
+        <v>-0.2043493558219742</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.007208171142031529</v>
+        <v>-0.007013604184544165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001063565125990384</v>
+        <v>0.0008842277153691084</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01336907160543753</v>
+        <v>-0.01324091688163667</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.01045957071366254</v>
+        <v>0.01266526725861069</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.003870712581892129</v>
+        <v>-0.00245071075402843</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>-0.2360614917701428</v>
+        <v>-0.2358586321223453</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.003360772293797211</v>
+        <v>-0.001411961184283792</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008318615655904291</v>
+        <v>0.006977366391094655</v>
       </c>
       <c r="P7" t="n">
-        <v>0.008318615655904291</v>
+        <v>0.006977366391094655</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.008234298288229075</v>
+        <v>0.006919373844774953</v>
       </c>
       <c r="R7" t="n">
-        <v>0.008318615655904291</v>
+        <v>0.006977366391094655</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008318615655904291</v>
+        <v>0.006977366391094655</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>-0.002894432812132655</v>
+        <v>-0.003964400414576017</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00677991848069494</v>
+        <v>0.005066476714659067</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00677991848069494</v>
+        <v>0.005066476714659067</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00677991848069494</v>
+        <v>0.005066476714659067</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00677991848069494</v>
+        <v>0.005066476714659067</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1046,10 +1046,10 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>0.0007829551504538604</v>
+        <v>0.001339457813578312</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03170487456434865</v>
+        <v>0.03519990851199634</v>
       </c>
     </row>
     <row r="8">
@@ -1060,65 +1060,65 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.004769652994224296</v>
+        <v>-0.004900897732035909</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.01129702396661805</v>
+        <v>0.01131090131643605</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0043516442063923</v>
+        <v>-0.004503516084140642</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01914479452913392</v>
+        <v>-0.0189973401518936</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.009304492062878365</v>
+        <v>-0.009395767575830702</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>-0.00413760101360008</v>
+        <v>-0.00429956925998277</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01849572449904147</v>
+        <v>-0.01849771360390854</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-0.004619287843162871</v>
+        <v>-0.00472565126102605</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01601300189255538</v>
+        <v>0.01750354106372741</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01128792346704635</v>
+        <v>0.01081511044860442</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01128792346704635</v>
+        <v>0.01081511044860442</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0106019696136106</v>
+        <v>0.01008469211538768</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01128792346704635</v>
+        <v>0.01081511044860442</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01128792346704635</v>
+        <v>0.01081511044860442</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.0009534123871593048</v>
+        <v>0.0007484517419380695</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009993563370537254</v>
+        <v>0.00908563802742552</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009993563370537254</v>
+        <v>0.00908563802742552</v>
       </c>
       <c r="X8" t="n">
-        <v>0.009993563370537254</v>
+        <v>0.00908563802742552</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.009993563370537254</v>
+        <v>0.00908563802742552</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -1126,10 +1126,10 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>-0.01079165182376211</v>
+        <v>-0.01083822878552915</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.006083137972132243</v>
+        <v>-0.001799311175972447</v>
       </c>
     </row>
     <row r="9">
@@ -1144,65 +1144,65 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.157198677478593</v>
+        <v>0.1575340805413632</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>-0.0664619223964841</v>
+        <v>-0.0665222176048887</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3114109834692029</v>
+        <v>0.3116059929442397</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0005117625686001547</v>
+        <v>-0.000785863903434556</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.00441839157747516</v>
+        <v>-0.004232523145300926</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>0.02187609632370652</v>
+        <v>0.02043461217738448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01152016314427351</v>
+        <v>0.01059335475973419</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.2879967739046009</v>
+        <v>0.2881666051266642</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03286403389632437</v>
+        <v>-0.02909438049383171</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00437227181330624</v>
+        <v>0.004191845735673829</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00437227181330624</v>
+        <v>0.004191845735673829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003993261365358306</v>
+        <v>0.00373360901334436</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00437227181330624</v>
+        <v>0.004191845735673829</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00437227181330624</v>
+        <v>0.004191845735673829</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>-0.001043267957312951</v>
+        <v>-0.000621334200853368</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00275316671977853</v>
+        <v>0.002662178794487152</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00275316671977853</v>
+        <v>0.002662178794487152</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00275316671977853</v>
+        <v>0.002662178794487152</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.00275316671977853</v>
+        <v>0.002662178794487152</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1210,10 +1210,10 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>0.006699798927372509</v>
+        <v>0.006653071082122842</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01285556482244828</v>
+        <v>0.01836749487869979</v>
       </c>
     </row>
     <row r="10">
@@ -1224,65 +1224,65 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.538242526776664</v>
+        <v>0.5384762113310484</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.8188195762561878</v>
+        <v>-0.8189439627097584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9416113030048988</v>
+        <v>0.9416292252811689</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01789738173324941</v>
+        <v>-0.01810313381212535</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9700505813527653</v>
+        <v>0.9700590434103616</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>0.04001028863635873</v>
+        <v>0.03450012186000487</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002512856472855196</v>
+        <v>-0.001202609616104384</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.9008169032606043</v>
+        <v>0.9008344226253768</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02025991360728522</v>
+        <v>-0.01993342316391926</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.950579500389874</v>
+        <v>-0.946989202615568</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.950579500389874</v>
+        <v>-0.946989202615568</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.9530054491090296</v>
+        <v>-0.9494622932744915</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.950579500389874</v>
+        <v>-0.946989202615568</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.950579500389874</v>
+        <v>-0.946989202615568</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>-0.6694058389108796</v>
+        <v>-0.6723049734841988</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.9211565775339943</v>
+        <v>-0.9122407629216305</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.9211565775339943</v>
+        <v>-0.9122407629216305</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.9211565775339943</v>
+        <v>-0.9122407629216305</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.9211565775339943</v>
+        <v>-0.9122407629216305</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1290,10 +1290,10 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>0.8753285373040998</v>
+        <v>0.8758800208272006</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3810924704989018</v>
+        <v>0.3824010152960406</v>
       </c>
     </row>
     <row r="11">
@@ -1308,65 +1308,65 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01244396941813333</v>
+        <v>0.01283010416120416</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>-0.01170300845283102</v>
+        <v>-0.01188153676326147</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0123894942734045</v>
+        <v>0.01262109151284366</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0144076198673108</v>
+        <v>-0.01462992692119707</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01339189873989204</v>
+        <v>0.01353537298941492</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.003743243246488434</v>
+        <v>0.004251301610052064</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001530245064619167</v>
+        <v>0.000395237199809488</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.01002637598348001</v>
+        <v>0.01022690709707628</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.01350203589373323</v>
+        <v>-0.01097697939672719</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.01870258440643711</v>
+        <v>-0.01973195829327833</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.01870258440643711</v>
+        <v>-0.01973195829327833</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01930286273341103</v>
+        <v>-0.02022071936882877</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.01870258440643711</v>
+        <v>-0.01973195829327833</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.01870258440643711</v>
+        <v>-0.01973195829327833</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>-0.02197769522692054</v>
+        <v>-0.02242792150511686</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.0201428962863401</v>
+        <v>-0.02110165217206609</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0201428962863401</v>
+        <v>-0.02110165217206609</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.0201428962863401</v>
+        <v>-0.02110165217206609</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0201428962863401</v>
+        <v>-0.02110165217206609</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -1374,10 +1374,10 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>0.02688731753553592</v>
+        <v>0.02719741491189659</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.005743077835254928</v>
+        <v>0.0100864051394562</v>
       </c>
     </row>
     <row r="12">
@@ -1392,65 +1392,65 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.0006092842097831332</v>
+        <v>3.277276931091077e-05</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.2074219662179735</v>
+        <v>0.2072414031696561</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02303893066728592</v>
+        <v>-0.0226575177063007</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0122590015241944</v>
+        <v>-0.01259900402396016</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.02785480399801449</v>
+        <v>-0.02761698657667946</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>-0.01064403449717555</v>
+        <v>-0.01013918709356748</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01601930450916114</v>
+        <v>-0.01539875571995023</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>-0.0275435542330555</v>
+        <v>-0.02719876716795068</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01988474492696641</v>
+        <v>0.02193274837669209</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02898813049524671</v>
+        <v>0.02802036102481443</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02898813049524671</v>
+        <v>0.02802036102481443</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02945274721210749</v>
+        <v>0.02862495791299831</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02898813049524671</v>
+        <v>0.02802036102481443</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02898813049524671</v>
+        <v>0.02802036102481443</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.01954344299832356</v>
+        <v>0.01899115448764618</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02779419586198153</v>
+        <v>0.02657259562290382</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02779419586198153</v>
+        <v>0.02657259562290382</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02779419586198153</v>
+        <v>0.02657259562290382</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02779419586198153</v>
+        <v>0.02657259562290382</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1458,10 +1458,10 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>-0.2973191646732709</v>
+        <v>-0.2973082796043311</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.1885094087725109</v>
+        <v>-0.1880474221778969</v>
       </c>
     </row>
     <row r="13">
@@ -1476,65 +1476,65 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001594401185159001</v>
+        <v>0.001416568088662723</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>-0.01046958135924904</v>
+        <v>-0.01044694572987783</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0140821694230803</v>
+        <v>0.01402414875296595</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0105175808751186</v>
+        <v>0.01056735863069434</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01200978923275652</v>
+        <v>0.01197618163104726</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>-0.007825256095636895</v>
+        <v>-0.008624716760988669</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00292058920787759</v>
+        <v>0.002421461088858443</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.01303658301888469</v>
+        <v>0.01297869162314766</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.008960555421827358</v>
+        <v>-0.007635322496796791</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.007834542370659007</v>
+        <v>-0.007434023337360932</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.007834542370659007</v>
+        <v>-0.007434023337360932</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.00739694186136147</v>
+        <v>-0.006964839830593592</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.007834542370659007</v>
+        <v>-0.007434023337360932</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.007834542370659007</v>
+        <v>-0.007434023337360932</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.005775388162866667</v>
+        <v>0.005801969896078796</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.006362717441447474</v>
+        <v>-0.005825601737024069</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.006362717441447474</v>
+        <v>-0.005825601737024069</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.006362717441447474</v>
+        <v>-0.005825601737024069</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.006362717441447474</v>
+        <v>-0.005825601737024069</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1542,10 +1542,10 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>0.003622094983222335</v>
+        <v>0.003569981326799252</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.01557852439635587</v>
+        <v>-0.02132693586107743</v>
       </c>
     </row>
     <row r="14">
@@ -1560,65 +1560,65 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2412770634799229</v>
+        <v>0.241648527713941</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.004492950642949719</v>
+        <v>0.00442524027300961</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01682919930924961</v>
+        <v>-0.01649081374763255</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.001402737498279969</v>
+        <v>-0.001717346180693847</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.01231169134186982</v>
+        <v>-0.01210458144418326</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0.01511444809970398</v>
+        <v>0.01473468116538725</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01804704873747859</v>
+        <v>0.01789292442771697</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>-0.02239296147344716</v>
+        <v>-0.02212613982904559</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009620750696709656</v>
+        <v>0.008257260384931712</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006069369648239373</v>
+        <v>0.005732451301298051</v>
       </c>
       <c r="P14" t="n">
-        <v>0.006069369648239373</v>
+        <v>0.005732451301298051</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.006363597905655562</v>
+        <v>0.006009821808392871</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006069369648239373</v>
+        <v>0.005732451301298051</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006069369648239373</v>
+        <v>0.005732451301298051</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>-0.00782633347798011</v>
+        <v>-0.007938091613523664</v>
       </c>
       <c r="V14" t="n">
-        <v>0.003183412288700238</v>
+        <v>0.002380766879230675</v>
       </c>
       <c r="W14" t="n">
-        <v>0.003183412288700238</v>
+        <v>0.002380766879230675</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003183412288700238</v>
+        <v>0.002380766879230675</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.003183412288700238</v>
+        <v>0.002380766879230675</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
@@ -1626,10 +1626,10 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>0.1673717202984415</v>
+        <v>0.1675639857425594</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1320548775301279</v>
+        <v>0.1250899953715998</v>
       </c>
     </row>
     <row r="15">
@@ -1644,65 +1644,65 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.06802682466865523</v>
+        <v>0.06781586268063451</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>-0.02718589182422319</v>
+        <v>-0.02703216856928673</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009511918422099789</v>
+        <v>-0.00912343678093747</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.002257196505327476</v>
+        <v>-0.002626622217064888</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.009478024680566369</v>
+        <v>-0.009240073713602947</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>-0.002023236820233195</v>
+        <v>-0.002016632912665316</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0001891032708342389</v>
+        <v>2.047056081882243e-05</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>-0.009211458906427146</v>
+        <v>-0.008859269730370789</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001778692154932606</v>
+        <v>-0.000956646474595132</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00947253210546071</v>
+        <v>0.009126771437070856</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00947253210546071</v>
+        <v>0.009126771437070856</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008929601238374928</v>
+        <v>0.008581244887249794</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00947253210546071</v>
+        <v>0.009126771437070856</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00947253210546071</v>
+        <v>0.009126771437070856</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.01190408204089798</v>
+        <v>0.01132340195693608</v>
       </c>
       <c r="V15" t="n">
-        <v>0.009751262329296594</v>
+        <v>0.009267895858715833</v>
       </c>
       <c r="W15" t="n">
-        <v>0.009751262329296594</v>
+        <v>0.009267895858715833</v>
       </c>
       <c r="X15" t="n">
-        <v>0.009751262329296594</v>
+        <v>0.009267895858715833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.009751262329296594</v>
+        <v>0.009267895858715833</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1710,10 +1710,10 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>0.0543551208200824</v>
+        <v>0.05476420183856807</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.04901754449329242</v>
+        <v>0.05743244792929791</v>
       </c>
     </row>
     <row r="16">
@@ -1728,65 +1728,65 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04311143784579245</v>
+        <v>0.04308130703525228</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.001539910671209873</v>
+        <v>0.001654944546197782</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01923874196207789</v>
+        <v>-0.01884602091384084</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004841798611823206</v>
+        <v>-0.005201593072063722</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03290703595701134</v>
+        <v>-0.03266351938654077</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>-0.009671205117374017</v>
+        <v>-0.009818748584749942</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.02357692321177321</v>
+        <v>-0.02394723042988921</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>-0.01233180676951717</v>
+        <v>-0.01200175305607012</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.009955144528667938</v>
+        <v>-0.01099922004141225</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03558371794406901</v>
+        <v>0.0349511549340462</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03558371794406901</v>
+        <v>0.0349511549340462</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03516749630838533</v>
+        <v>0.03457762467910498</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03558371794406901</v>
+        <v>0.0349511549340462</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03558371794406901</v>
+        <v>0.0349511549340462</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.03224287777123253</v>
+        <v>0.0317597776543911</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03666431360701913</v>
+        <v>0.0359918801276752</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03666431360701913</v>
+        <v>0.0359918801276752</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03666431360701913</v>
+        <v>0.0359918801276752</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03666431360701913</v>
+        <v>0.0359918801276752</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1794,10 +1794,10 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>0.0207906380315679</v>
+        <v>0.02117336801493472</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02972333511119992</v>
+        <v>0.0300495827059833</v>
       </c>
     </row>
     <row r="17">
@@ -1812,65 +1812,65 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02245277271540743</v>
+        <v>-0.02218670959146838</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.02018168233886874</v>
+        <v>0.02009100742764029</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.00911299465175148</v>
+        <v>-0.009008165352326614</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006027508310785808</v>
+        <v>-0.006124308724972348</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.01390690277311165</v>
+        <v>-0.01384097392963895</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>-0.005745324527090293</v>
+        <v>-0.005469652346786093</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.005717382035830936</v>
+        <v>-0.005533341245333649</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>-0.001972468731441366</v>
+        <v>-0.001870842698833708</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.001348664936964923</v>
+        <v>0.001199682055994691</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01046963226979129</v>
+        <v>0.009737098757483948</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01046963226979129</v>
+        <v>0.009737098757483948</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01058724772565558</v>
+        <v>0.00972972154118886</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01046963226979129</v>
+        <v>0.009737098757483948</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01046963226979129</v>
+        <v>0.009737098757483948</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>0.005305907087780102</v>
+        <v>0.004730153085206123</v>
       </c>
       <c r="V17" t="n">
-        <v>0.009025502291334619</v>
+        <v>0.00798817779152711</v>
       </c>
       <c r="W17" t="n">
-        <v>0.009025502291334619</v>
+        <v>0.00798817779152711</v>
       </c>
       <c r="X17" t="n">
-        <v>0.009025502291334619</v>
+        <v>0.00798817779152711</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.009025502291334619</v>
+        <v>0.00798817779152711</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -1878,10 +1878,10 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>-0.01494036065316305</v>
+        <v>-0.01482866353714654</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.01169275036279765</v>
+        <v>-0.01052288720491549</v>
       </c>
     </row>
     <row r="18">
@@ -1896,65 +1896,65 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01194536463143638</v>
+        <v>0.01164174406594916</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>-0.005767306306537833</v>
+        <v>-0.005674962563134702</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.001007747047633002</v>
+        <v>-0.001199423712005735</v>
       </c>
       <c r="G18" t="n">
-        <v>0.007544566248364789</v>
+        <v>0.007729994901385317</v>
       </c>
       <c r="H18" t="n">
-        <v>6.677599625727729e-05</v>
+        <v>-5.027088201204179e-05</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>0.01668370485661799</v>
+        <v>0.01661635093705283</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01787872681421948</v>
+        <v>0.01770546704464361</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>-0.004275629195569622</v>
+        <v>-0.004433579313449578</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.008457161329033947</v>
+        <v>-0.008201216427731587</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.001780158768891357</v>
+        <v>-0.001693332115773925</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.001780158768891357</v>
+        <v>-0.001693332115773925</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.001610149160723145</v>
+        <v>-0.001519060860798892</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.001780158768891357</v>
+        <v>-0.001693332115773925</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.001780158768891357</v>
+        <v>-0.001693332115773925</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>-0.008389201778132079</v>
+        <v>-0.007911993004669608</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.002688903639135724</v>
+        <v>-0.002627196201150901</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.002688903639135724</v>
+        <v>-0.002627196201150901</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.002688903639135724</v>
+        <v>-0.002627196201150901</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.002688903639135724</v>
+        <v>-0.002627196201150901</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -1962,10 +1962,10 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>0.003101910274086075</v>
+        <v>0.002942648517776565</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.007583826441340701</v>
+        <v>0.01188823098781456</v>
       </c>
     </row>
     <row r="19">
@@ -1980,65 +1980,65 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01117707719322276</v>
+        <v>0.01078811284856017</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>-0.0156522842638782</v>
+        <v>-0.01550880081384088</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00483959485821194</v>
+        <v>0.004566769527109191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001283215586818032</v>
+        <v>0.000383098863360732</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005154141320956065</v>
+        <v>0.004993752872229515</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>0.0103448180642462</v>
+        <v>0.01044419523477045</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.003928708815369672</v>
+        <v>-0.004066283395041699</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>-0.00725415075881963</v>
+        <v>-0.007452859786829867</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01165834863269045</v>
+        <v>0.009633435417878419</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.006490081594373144</v>
+        <v>-0.006808861713008119</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.006490081594373144</v>
+        <v>-0.006808861713008119</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.006449694357257977</v>
+        <v>-0.006677471595739901</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.006490081594373144</v>
+        <v>-0.006808861713008119</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.006490081594373144</v>
+        <v>-0.006808861713008119</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>-0.01490519770363727</v>
+        <v>-0.01461580340203525</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.008157091875340935</v>
+        <v>-0.008654991227030527</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.008157091875340935</v>
+        <v>-0.008654991227030527</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.008157091875340935</v>
+        <v>-0.008654991227030527</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.008157091875340935</v>
+        <v>-0.008654991227030527</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>0.005409413599926171</v>
+        <v>0.005152453454592774</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.002138959556822669</v>
+        <v>-0.007223945761651329</v>
       </c>
     </row>
     <row r="20">
@@ -2064,65 +2064,65 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3680448837906837</v>
+        <v>-0.3690293284571731</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.1786687516614968</v>
+        <v>0.1790205563128222</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03279700319415624</v>
+        <v>0.03294166163766647</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002047438923559022</v>
+        <v>-0.002191886103675444</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02440876890864368</v>
+        <v>0.02449413659576546</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>-0.01160597055785707</v>
+        <v>-0.01138748743149949</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01713755418550697</v>
+        <v>-0.0168575275223011</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.02480469481651433</v>
+        <v>0.02492510125300405</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0009527674663112321</v>
+        <v>0.002031311958567835</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.02132956127840214</v>
+        <v>-0.02146911887476475</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.02132956127840214</v>
+        <v>-0.02146911887476475</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.02162052300015826</v>
+        <v>-0.02175101434204057</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.02132956127840214</v>
+        <v>-0.02146911887476475</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.02132956127840214</v>
+        <v>-0.02146911887476475</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>-0.009203344726568365</v>
+        <v>-0.009403440184137607</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.01917666837088907</v>
+        <v>-0.01887820107512804</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01917666837088907</v>
+        <v>-0.01887820107512804</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.01917666837088907</v>
+        <v>-0.01887820107512804</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.01917666837088907</v>
+        <v>-0.01887820107512804</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>0.01815368413418578</v>
+        <v>0.01834961353398454</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.005045555569697374</v>
+        <v>0.009137997293519889</v>
       </c>
     </row>
     <row r="21">
@@ -2148,65 +2148,65 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01860201159079355</v>
+        <v>-0.01895124863004994</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.01627005554772419</v>
+        <v>0.0164467100978684</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009610418890500792</v>
+        <v>-0.00985307300212292</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006605652847256127</v>
+        <v>-0.006370537694821508</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01879074820966594</v>
+        <v>-0.01894194709367788</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>-0.01096797741300961</v>
+        <v>-0.01069308820372353</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01441910960823618</v>
+        <v>-0.01429507727580309</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>-0.002905090597951523</v>
+        <v>-0.003112444156497766</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.005116309665312152</v>
+        <v>-0.002481847338058378</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01848217124817521</v>
+        <v>0.01871017322840693</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01848217124817521</v>
+        <v>0.01871017322840693</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01805347038195155</v>
+        <v>0.0181827676393107</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01848217124817521</v>
+        <v>0.01871017322840693</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01848217124817521</v>
+        <v>0.01871017322840693</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.007362332010219572</v>
+        <v>0.007903957372158293</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01733063549084367</v>
+        <v>0.01736808127072325</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01733063549084367</v>
+        <v>0.01736808127072325</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01733063549084367</v>
+        <v>0.01736808127072325</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01733063549084367</v>
+        <v>0.01736808127072325</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -2214,10 +2214,10 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>-0.004142322245961798</v>
+        <v>-0.004326096653043865</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.006210278694394343</v>
+        <v>-0.00403637651345506</v>
       </c>
     </row>
     <row r="22">
@@ -2232,65 +2232,65 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03120048528313106</v>
+        <v>-0.03148996647559866</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.02248240476426618</v>
+        <v>0.02265640996225639</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01836210478590316</v>
+        <v>-0.01864412637776505</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005792247909365788</v>
+        <v>-0.005522080060883202</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01204969963980792</v>
+        <v>-0.01222358237694329</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>-0.008225976047550447</v>
+        <v>-0.007794060023762399</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01446259422352658</v>
+        <v>-0.01441711315268452</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>-0.01960870762387772</v>
+        <v>-0.01984828783393151</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01666488560399694</v>
+        <v>0.01366648690148718</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006544205263621753</v>
+        <v>0.00600573403222936</v>
       </c>
       <c r="P22" t="n">
-        <v>0.006544205263621753</v>
+        <v>0.00600573403222936</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.007053728536823812</v>
+        <v>0.006494535331781411</v>
       </c>
       <c r="R22" t="n">
-        <v>0.006544205263621753</v>
+        <v>0.00600573403222936</v>
       </c>
       <c r="S22" t="n">
-        <v>0.006544205263621753</v>
+        <v>0.00600573403222936</v>
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>0.006723413734367524</v>
+        <v>0.006625605385024214</v>
       </c>
       <c r="V22" t="n">
-        <v>0.006406322705117255</v>
+        <v>0.005910280556411221</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006406322705117255</v>
+        <v>0.005910280556411221</v>
       </c>
       <c r="X22" t="n">
-        <v>0.006406322705117255</v>
+        <v>0.005910280556411221</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.006406322705117255</v>
+        <v>0.005910280556411221</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -2298,10 +2298,10 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>-0.0233682506009005</v>
+        <v>-0.0234981026679241</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.03988355020343805</v>
+        <v>-0.04419991895199675</v>
       </c>
     </row>
     <row r="23">
@@ -2316,65 +2316,65 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.004042087553164895</v>
+        <v>-0.003901131612045263</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>-0.003604791258371722</v>
+        <v>-0.00360765902430636</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008994430818936899</v>
+        <v>-0.008735684605427382</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00639360121724225</v>
+        <v>0.006149384405975376</v>
       </c>
       <c r="H23" t="n">
-        <v>3.081941718475749e-05</v>
+        <v>0.0001892019915680796</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>0.02907853628348719</v>
+        <v>0.02922346158493846</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03428744024915428</v>
+        <v>0.03471550497262019</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>-0.004778268690953076</v>
+        <v>-0.004575191415007655</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.009860265390156548</v>
+        <v>-0.0108573260771267</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.01086031275883028</v>
+        <v>-0.01186213468248539</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.01086031275883028</v>
+        <v>-0.01186213468248539</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01062139573172738</v>
+        <v>-0.01163454872138195</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.01086031275883028</v>
+        <v>-0.01186213468248539</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.01086031275883028</v>
+        <v>-0.01186213468248539</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>-0.0219424929883936</v>
+        <v>-0.02172334406893376</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.01515020622371774</v>
+        <v>-0.01606229065849163</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.01515020622371774</v>
+        <v>-0.01606229065849163</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.01515020622371774</v>
+        <v>-0.01606229065849163</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.01515020622371774</v>
+        <v>-0.01606229065849163</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -2382,10 +2382,10 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>0.008928892044915588</v>
+        <v>0.008897532739901308</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.009112007851750424</v>
+        <v>-0.01918292966331719</v>
       </c>
     </row>
     <row r="24">
@@ -2400,65 +2400,65 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.05014872304592972</v>
+        <v>-0.05103058572122342</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.02896612388504112</v>
+        <v>0.02935741538229661</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01231793691271268</v>
+        <v>-0.01263725896949036</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002970598825647483</v>
+        <v>-0.002663533066541322</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.01249363476536844</v>
+        <v>-0.01269257781970311</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>0.0319483911188</v>
+        <v>0.03048865600354624</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02683288590491208</v>
+        <v>0.02587047425081896</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>-0.005484251039883848</v>
+        <v>-0.005836048169441927</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.01340253819002165</v>
+        <v>-0.01254398981138745</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006463107843657568</v>
+        <v>0.007038808889552354</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006463107843657568</v>
+        <v>0.007038808889552354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007717388087461431</v>
+        <v>0.008305552844222111</v>
       </c>
       <c r="R24" t="n">
-        <v>0.006463107843657568</v>
+        <v>0.007038808889552354</v>
       </c>
       <c r="S24" t="n">
-        <v>0.006463107843657568</v>
+        <v>0.007038808889552354</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>-0.01137513726034523</v>
+        <v>-0.01001180881647235</v>
       </c>
       <c r="V24" t="n">
-        <v>0.003055854676337429</v>
+        <v>0.003302066532082661</v>
       </c>
       <c r="W24" t="n">
-        <v>0.003055854676337429</v>
+        <v>0.003302066532082661</v>
       </c>
       <c r="X24" t="n">
-        <v>0.003055854676337429</v>
+        <v>0.003302066532082661</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.003055854676337429</v>
+        <v>0.003302066532082661</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="n">
-        <v>-0.02708295272499879</v>
+        <v>-0.02770299125211964</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.0003122760446447033</v>
+        <v>-0.01901573682462947</v>
       </c>
     </row>
     <row r="25">
@@ -2480,65 +2480,65 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.02532070937596884</v>
+        <v>-0.02577789587911583</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.01703770766158034</v>
+        <v>0.01727633665905347</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0004939635706252896</v>
+        <v>-0.0007343368613734743</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00810463307547464</v>
+        <v>0.008328855117154204</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.002270689912292183</v>
+        <v>-0.00242048851281954</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>0.0395615823284705</v>
+        <v>0.03903080373723215</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04198555523829858</v>
+        <v>0.04170714099628563</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>0.002803873331689148</v>
+        <v>0.002561536614461464</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01441245685854605</v>
+        <v>-0.01600153715259053</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.004678732144988422</v>
+        <v>-0.004662782682511307</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.004678732144988422</v>
+        <v>-0.004662782682511307</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.004939794009222014</v>
+        <v>-0.005141439277657571</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.004678732144988422</v>
+        <v>-0.004662782682511307</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.004678732144988422</v>
+        <v>-0.004662782682511307</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>-0.02402729890515919</v>
+        <v>-0.02333459286938371</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.010307364810297</v>
+        <v>-0.01049917357196694</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.010307364810297</v>
+        <v>-0.01049917357196694</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.010307364810297</v>
+        <v>-0.01049917357196694</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.010307364810297</v>
+        <v>-0.01049917357196694</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2546,10 +2546,10 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>-0.01947478513709945</v>
+        <v>-0.01987584818703392</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.01529689563362853</v>
+        <v>-0.004730346333213853</v>
       </c>
     </row>
     <row r="26">
@@ -2564,65 +2564,65 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.03932693371807615</v>
+        <v>-0.03892875016515</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.03402751782049088</v>
+        <v>0.03390128574005142</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.008030666973730881</v>
+        <v>-0.007668122898724915</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.03011077058148725</v>
+        <v>-0.03044621267384851</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.01995634565088288</v>
+        <v>-0.01973183128527325</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>0.02040774551068678</v>
+        <v>0.02134929656597186</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002753267580286766</v>
+        <v>0.003525638733025549</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.01248015394195286</v>
+        <v>0.01288380973135239</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01988376038038836</v>
+        <v>-0.02280864879983281</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01392046995233381</v>
+        <v>0.0131817549592702</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01392046995233381</v>
+        <v>0.0131817549592702</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01302480606565491</v>
+        <v>0.01228488989939559</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01392046995233381</v>
+        <v>0.0131817549592702</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01392046995233381</v>
+        <v>0.0131817549592702</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>-0.005943075385785442</v>
+        <v>-0.006405010336200413</v>
       </c>
       <c r="V26" t="n">
-        <v>0.009545634841253965</v>
+        <v>0.008504955316198212</v>
       </c>
       <c r="W26" t="n">
-        <v>0.009545634841253965</v>
+        <v>0.008504955316198212</v>
       </c>
       <c r="X26" t="n">
-        <v>0.009545634841253965</v>
+        <v>0.008504955316198212</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.009545634841253965</v>
+        <v>0.008504955316198212</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>-0.009808729188814955</v>
+        <v>-0.009550300702012026</v>
       </c>
       <c r="AF26" t="n">
-        <v>-4.984334201774329e-05</v>
+        <v>0.008719249020769959</v>
       </c>
     </row>
     <row r="27">
@@ -2648,65 +2648,65 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002953553207640327</v>
+        <v>-0.003019598136783925</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>-0.03507091939396283</v>
+        <v>-0.03511014102040563</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02535670802828033</v>
+        <v>0.02545910588236423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0795508043745604</v>
+        <v>0.07942867661714705</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04589565490529079</v>
+        <v>0.04595299883011994</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>-0.1151183357439795</v>
+        <v>-0.1143823795832952</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.01458288075382184</v>
+        <v>-0.01443600000144</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0.03037059724069665</v>
+        <v>0.03046222537848901</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03941115726110464</v>
+        <v>0.03902743213962537</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.03364470464320956</v>
+        <v>-0.03208272877130915</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.03364470464320956</v>
+        <v>-0.03208272877130915</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.02780655771010145</v>
+        <v>-0.02562355696094228</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.03364470464320956</v>
+        <v>-0.03208272877130915</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.03364470464320956</v>
+        <v>-0.03208272877130915</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.02944571540958852</v>
+        <v>0.02968868336354733</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0182840768874063</v>
+        <v>-0.01521122835244913</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0182840768874063</v>
+        <v>-0.01521122835244913</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.0182840768874063</v>
+        <v>-0.01521122835244913</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.0182840768874063</v>
+        <v>-0.01521122835244913</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2714,10 +2714,10 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
-        <v>0.01975777532457272</v>
+        <v>0.01981294716051788</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.01630842807216906</v>
+        <v>0.01622678877707155</v>
       </c>
     </row>
     <row r="28">
@@ -2728,65 +2728,65 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02114421165145394</v>
+        <v>0.02154906412596256</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>-0.01767126246377727</v>
+        <v>-0.01786828372273135</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000369318329452205</v>
+        <v>0.0007020176920807075</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01068800814184446</v>
+        <v>-0.01099815883992635</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004280863183441011</v>
+        <v>0.004483740755349629</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>-0.003864551445703307</v>
+        <v>-0.003802599224103969</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.005501606443737728</v>
+        <v>-0.005364450454578017</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>-0.0004454313191569887</v>
+        <v>-0.000170693574827743</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.01143938857528564</v>
+        <v>-0.01103864575953241</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.005530319893510516</v>
+        <v>-0.006280989659239586</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.005530319893510516</v>
+        <v>-0.006280989659239586</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.005778469403364467</v>
+        <v>-0.00657383402295336</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.005530319893510516</v>
+        <v>-0.006280989659239586</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.005530319893510516</v>
+        <v>-0.006280989659239586</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>-0.004686593405115598</v>
+        <v>-0.005351644342065773</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.005605503621732751</v>
+        <v>-0.006423694816947791</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.005605503621732751</v>
+        <v>-0.006423694816947791</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.005605503621732751</v>
+        <v>-0.006423694816947791</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.005605503621732751</v>
+        <v>-0.006423694816947791</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2794,10 +2794,10 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>0.01888198998743327</v>
+        <v>0.01912800105312004</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.01113607777978165</v>
+        <v>-0.006711061900442476</v>
       </c>
     </row>
     <row r="29">
@@ -2808,65 +2808,65 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.0149080967213851</v>
+        <v>-0.01451900179676007</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>-0.01763404176633646</v>
+        <v>-0.01784134372165375</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00851392713116453</v>
+        <v>0.008893534051741361</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09516815449524481</v>
+        <v>0.09476969841478793</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02917160555760612</v>
+        <v>0.0293966900398676</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>-0.1200956094220045</v>
+        <v>-0.1185103388524135</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01191140614677558</v>
+        <v>-0.01130301395612055</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>0.02770317155868149</v>
+        <v>0.02805777193831088</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01790731090972923</v>
+        <v>0.01967187525603085</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.01959526445505188</v>
+        <v>-0.01821518472860739</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.01959526445505188</v>
+        <v>-0.01821518472860739</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01098635919260683</v>
+        <v>-0.008701696956067876</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01959526445505188</v>
+        <v>-0.01821518472860739</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.01959526445505188</v>
+        <v>-0.01821518472860739</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.04483844418343453</v>
+        <v>0.04439254295970172</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.001572547210522537</v>
+        <v>0.0008876124835044993</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.001572547210522537</v>
+        <v>0.0008876124835044993</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.001572547210522537</v>
+        <v>0.0008876124835044993</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.001572547210522537</v>
+        <v>0.0008876124835044993</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2874,10 +2874,10 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>0.01537626324784765</v>
+        <v>0.01574194373367775</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.04233975006285771</v>
+        <v>0.03456396291855851</v>
       </c>
     </row>
     <row r="30">
@@ -2888,65 +2888,65 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01223170559682165</v>
+        <v>-0.01221482343259294</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.01125180378212497</v>
+        <v>0.0112587799383512</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.005821114090765332</v>
+        <v>-0.005696064035842561</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0003068641579456348</v>
+        <v>-0.0004248924649956986</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0004292039200156959</v>
+        <v>-0.000355653902226156</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>-0.009059909749056655</v>
+        <v>-0.009161005038440199</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.01277046477722916</v>
+        <v>-0.01299989840799593</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>-0.0003686243130979138</v>
+        <v>-0.0002938801077552043</v>
       </c>
       <c r="N30" t="n">
-        <v>0.004585074382727922</v>
+        <v>0.0003600019947691906</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003452379023223612</v>
+        <v>0.003323530596941223</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003452379023223612</v>
+        <v>0.003323530596941223</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.003418983724716133</v>
+        <v>0.003197543071901723</v>
       </c>
       <c r="R30" t="n">
-        <v>0.003452379023223612</v>
+        <v>0.003323530596941223</v>
       </c>
       <c r="S30" t="n">
-        <v>0.003452379023223612</v>
+        <v>0.003323530596941223</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.004846438195202067</v>
+        <v>0.004839549313581971</v>
       </c>
       <c r="V30" t="n">
-        <v>0.004714631281598458</v>
+        <v>0.00447129377885175</v>
       </c>
       <c r="W30" t="n">
-        <v>0.004714631281598458</v>
+        <v>0.00447129377885175</v>
       </c>
       <c r="X30" t="n">
-        <v>0.004714631281598458</v>
+        <v>0.00447129377885175</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.004714631281598458</v>
+        <v>0.00447129377885175</v>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -2954,10 +2954,10 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>-0.0155775500838463</v>
+        <v>-0.01566543557061742</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.01199673778693314</v>
+        <v>0.0007811592312463691</v>
       </c>
     </row>
     <row r="31">
@@ -2972,65 +2972,65 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02660419411613416</v>
+        <v>0.02641094995243799</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>-0.01992162437289379</v>
+        <v>-0.01985815442632618</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01193512652110254</v>
+        <v>0.01170334702813388</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.007092083963011091</v>
+        <v>-0.006868605970744238</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01232125118901332</v>
+        <v>0.01218203722328149</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>-0.01000793090190667</v>
+        <v>-0.009791997031679879</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01729836521926234</v>
+        <v>-0.01697448231097929</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>0.006306951378270854</v>
+        <v>0.006143208341728333</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0008234051350364178</v>
+        <v>-0.001805534842882837</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.0122646778575403</v>
+        <v>-0.01220362820014513</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0122646778575403</v>
+        <v>-0.01220362820014513</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.01249268245005544</v>
+        <v>-0.01249705643588226</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0122646778575403</v>
+        <v>-0.01220362820014513</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0122646778575403</v>
+        <v>-0.01220362820014513</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>-0.01139002513587952</v>
+        <v>-0.01164229812969192</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.01202797707200504</v>
+        <v>-0.01216076823043073</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.01202797707200504</v>
+        <v>-0.01216076823043073</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.01202797707200504</v>
+        <v>-0.01216076823043073</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.01202797707200504</v>
+        <v>-0.01216076823043073</v>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
@@ -3038,10 +3038,10 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
-        <v>0.008537076538957251</v>
+        <v>0.008479606899184275</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.002634496743286233</v>
+        <v>-0.008334195117367804</v>
       </c>
     </row>
     <row r="32">
@@ -3052,65 +3052,65 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02011317855407816</v>
+        <v>0.01989152181966087</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>-0.01469732342626989</v>
+        <v>-0.01467630452305218</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003874486974225579</v>
+        <v>0.00373125576525023</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02053307871658366</v>
+        <v>0.0206737051789482</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008788100573295933</v>
+        <v>0.008698583195943327</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>0.01199434739288794</v>
+        <v>0.01194979814199192</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0294353238955114</v>
+        <v>0.02915553697422148</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>-0.0009576559249424917</v>
+        <v>-0.001106752364270094</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.02447636609536718</v>
+        <v>-0.02402099762405839</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.01006798891591044</v>
+        <v>-0.009790220935608836</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.01006798891591044</v>
+        <v>-0.009790220935608836</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.009985809598894569</v>
+        <v>-0.00968669030746761</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.01006798891591044</v>
+        <v>-0.009790220935608836</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.01006798891591044</v>
+        <v>-0.009790220935608836</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>-0.007435742994937524</v>
+        <v>-0.00732327677293107</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.009567372297989011</v>
+        <v>-0.009210086096403444</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.009567372297989011</v>
+        <v>-0.009210086096403444</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.009567372297989011</v>
+        <v>-0.009210086096403444</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.009567372297989011</v>
+        <v>-0.009210086096403444</v>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
@@ -3118,10 +3118,10 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>0.01029934995402442</v>
+        <v>0.01030164790006591</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.0105811842800733</v>
+        <v>0.01443163228926529</v>
       </c>
     </row>
     <row r="33">
@@ -3136,65 +3136,65 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02036012984109427</v>
+        <v>0.02062146735285869</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>-0.01862578844700513</v>
+        <v>-0.01871460958058438</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007049195097122667</v>
+        <v>0.007025319449012776</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01160459530081287</v>
+        <v>-0.01157898862315954</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01277077965413011</v>
+        <v>0.01275573948622958</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>0.01048238584091368</v>
+        <v>0.01075972535838901</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0009782543303378565</v>
+        <v>0.001294816371792655</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0.008699936001606085</v>
+        <v>0.008680539995221599</v>
       </c>
       <c r="N33" t="n">
-        <v>0.003284775422485925</v>
+        <v>0.001392869111587459</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.01426777898196687</v>
+        <v>-0.01489229694769188</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01426777898196687</v>
+        <v>-0.01489229694769188</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01385542280124693</v>
+        <v>-0.0145148826285953</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01426777898196687</v>
+        <v>-0.01489229694769188</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01426777898196687</v>
+        <v>-0.01489229694769188</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>-0.01226633907813976</v>
+        <v>-0.01299888301595532</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.01477102488925156</v>
+        <v>-0.01551699527667981</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.01477102488925156</v>
+        <v>-0.01551699527667981</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01477102488925156</v>
+        <v>-0.01551699527667981</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.01477102488925156</v>
+        <v>-0.01551699527667981</v>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -3202,10 +3202,10 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="n">
-        <v>0.02175613811837998</v>
+        <v>0.02190078788403151</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.02088068456428381</v>
+        <v>0.02145797538631901</v>
       </c>
     </row>
     <row r="34">
@@ -3216,65 +3216,65 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003873373954502786</v>
+        <v>0.004251191594047663</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>-0.01443759407343654</v>
+        <v>-0.0145856424074257</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01535335004575946</v>
+        <v>0.01571443339657733</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.001907146183138189</v>
+        <v>-0.002252337018093481</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01452814769436481</v>
+        <v>0.01475355063814202</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>0.01150854545458912</v>
+        <v>0.01131888573275543</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00404059020687691</v>
+        <v>0.00407815101112604</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.01225078187306129</v>
+        <v>0.0125571399582856</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.007528291486546558</v>
+        <v>-0.009095806681840211</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.01380541760212787</v>
+        <v>-0.01409068088362723</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.01380541760212787</v>
+        <v>-0.01409068088362723</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01394125682279313</v>
+        <v>-0.01424948716197948</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.01380541760212787</v>
+        <v>-0.01409068088362723</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.01380541760212787</v>
+        <v>-0.01409068088362723</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>-0.01126871645637651</v>
+        <v>-0.0115366051014642</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.0133308949424939</v>
+        <v>-0.01377436979897479</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.0133308949424939</v>
+        <v>-0.01377436979897479</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.0133308949424939</v>
+        <v>-0.01377436979897479</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.0133308949424939</v>
+        <v>-0.01377436979897479</v>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3282,10 +3282,10 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>0.01106427249435481</v>
+        <v>0.01127583021103321</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.01510759871061848</v>
+        <v>-0.01279953036798121</v>
       </c>
     </row>
     <row r="35">
@@ -3300,65 +3300,65 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.04848527967298143</v>
+        <v>-0.04908300033132001</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>-0.1022728190295923</v>
+        <v>-0.1021619122144765</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.006389052984666563</v>
+        <v>-0.006794670511786819</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5606005491134243</v>
+        <v>0.5607574131502964</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1210966087575258</v>
+        <v>0.1207925381117015</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>-0.1149603170093803</v>
+        <v>-0.1160180703687228</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1974605910858042</v>
+        <v>0.1954350573534023</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>0.04958656634087923</v>
+        <v>0.04927330142693205</v>
       </c>
       <c r="N35" t="n">
-        <v>0.151937476642953</v>
+        <v>0.1540255452146168</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.02903631232849212</v>
+        <v>-0.02040916228836648</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.02903631232849212</v>
+        <v>-0.02040916228836648</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0364528050868277</v>
+        <v>-0.02844702372988095</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02903631232849212</v>
+        <v>-0.02040916228836648</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.02903631232849212</v>
+        <v>-0.02040916228836648</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.1851748759355713</v>
+        <v>0.1855094968603798</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01356745058495493</v>
+        <v>0.02481715107268604</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01356745058495493</v>
+        <v>0.02481715107268604</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01356745058495493</v>
+        <v>0.02481715107268604</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01356745058495493</v>
+        <v>0.02481715107268604</v>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3366,10 +3366,10 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>0.03807470430460643</v>
+        <v>0.03816246690249867</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.0340576909619619</v>
+        <v>0.03549319092372764</v>
       </c>
     </row>
     <row r="36">
@@ -3380,65 +3380,65 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.01209729206345471</v>
+        <v>-0.01236076167843046</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>-0.006211827719685595</v>
+        <v>-0.006162450678498027</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.009557061472318475</v>
+        <v>-0.009677241507089658</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08592407230545751</v>
+        <v>0.08603438782537549</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006883551500216011</v>
+        <v>0.006802846064113841</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>-0.01865081674197985</v>
+        <v>-0.01898413727136549</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02990340224107247</v>
+        <v>0.02972249792489991</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>0.004931662058702257</v>
+        <v>0.0048077925123117</v>
       </c>
       <c r="N36" t="n">
-        <v>0.041157759124372</v>
+        <v>0.04175655448322564</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0003569644541153129</v>
+        <v>0.001646207201848288</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0003569644541153129</v>
+        <v>0.001646207201848288</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.007914579986825697</v>
+        <v>0.01001041364841654</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0003569644541153129</v>
+        <v>0.001646207201848288</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0003569644541153129</v>
+        <v>0.001646207201848288</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.04130419572509941</v>
+        <v>0.04177038666281546</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01362448902745735</v>
+        <v>0.01609156701166268</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01362448902745735</v>
+        <v>0.01609156701166268</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01362448902745735</v>
+        <v>0.01609156701166268</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01362448902745735</v>
+        <v>0.01609156701166268</v>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3446,10 +3446,10 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="n">
-        <v>-0.0007968420094583144</v>
+        <v>-0.0007934568317382731</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.02521941180553038</v>
+        <v>0.0209775326151013</v>
       </c>
     </row>
     <row r="37">
@@ -3464,65 +3464,65 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2586032046265196</v>
+        <v>0.2565580234463209</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-0.1421373703792379</v>
+        <v>-0.1410955486838219</v>
       </c>
       <c r="F37" t="n">
-        <v>0.007059858358226268</v>
+        <v>0.007153504318140171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02028084502854953</v>
+        <v>0.02019039891961595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.004726340706316535</v>
+        <v>0.004785981503439259</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>0.5999094895089463</v>
+        <v>0.6017748964549958</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6118119657544955</v>
+        <v>0.6126819711632787</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>-0.02162758477265682</v>
+        <v>-0.02211643461265738</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.4706995712303412</v>
+        <v>-0.4695347212577874</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1596600893287901</v>
+        <v>-0.1720604478424179</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.1596600893287901</v>
+        <v>-0.1720604478424179</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.160392532095855</v>
+        <v>-0.172770700606828</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1596600893287901</v>
+        <v>-0.1720604478424179</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1596600893287901</v>
+        <v>-0.1720604478424179</v>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>-0.4518531891732488</v>
+        <v>-0.4489204323888172</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.2418052370137894</v>
+        <v>-0.2568565575382623</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.2418052370137894</v>
+        <v>-0.2568565575382623</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.2418052370137894</v>
+        <v>-0.2568565575382623</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.2418052370137894</v>
+        <v>-0.2568565575382623</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -3530,10 +3530,10 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
-        <v>0.1653921146774373</v>
+        <v>0.1632792405151696</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.1159362851681981</v>
+        <v>0.1108264888490595</v>
       </c>
     </row>
     <row r="38">
@@ -3544,65 +3544,65 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2548094721465302</v>
+        <v>0.2551854602234184</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>-0.1178618187022759</v>
+        <v>-0.1178934296757372</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.02408786660093123</v>
+        <v>-0.0240644200345768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01648979178788939</v>
+        <v>0.01645619384224775</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01334100865791406</v>
+        <v>-0.01332863707714548</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>-0.02315271034999317</v>
+        <v>-0.02291204894848195</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.01229279123531789</v>
+        <v>-0.01219135315965413</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>-0.1678598878479177</v>
+        <v>-0.167796150807846</v>
       </c>
       <c r="N38" t="n">
-        <v>0.007875990505647537</v>
+        <v>0.006540958073817008</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01796288823190809</v>
+        <v>0.01900562072822483</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01796288823190809</v>
+        <v>0.01900562072822483</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01812627764448448</v>
+        <v>0.01921707081668283</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01796288823190809</v>
+        <v>0.01900562072822483</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01796288823190809</v>
+        <v>0.01900562072822483</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.026080402346976</v>
+        <v>0.02637162556686502</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02047517556332395</v>
+        <v>0.021614925120597</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02047517556332395</v>
+        <v>0.021614925120597</v>
       </c>
       <c r="X38" t="n">
-        <v>0.02047517556332395</v>
+        <v>0.021614925120597</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02047517556332395</v>
+        <v>0.021614925120597</v>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3610,10 +3610,10 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>-0.01118911225222236</v>
+        <v>-0.01103761810550472</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.0003065654187260022</v>
+        <v>0.01018668079146723</v>
       </c>
     </row>
     <row r="39">
@@ -3628,65 +3628,65 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02197554574540359</v>
+        <v>0.02217523874300954</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>0.01014318186566485</v>
+        <v>0.01007351051494042</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.005700813343941298</v>
+        <v>-0.005446535833861433</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02669695811911483</v>
+        <v>-0.02693027829321113</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01526020844024748</v>
+        <v>-0.0151016024920641</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0.0143034981065841</v>
+        <v>0.01417810453512418</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.009449993432059763</v>
+        <v>-0.009412947736517909</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>-0.01481473303063974</v>
+        <v>-0.01459114483964579</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.004168117442038395</v>
+        <v>-0.002769862978727208</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01150379655763085</v>
+        <v>0.01127908864316354</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01150379655763085</v>
+        <v>0.01127908864316354</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01218200221076628</v>
+        <v>0.0119035900761436</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01150379655763085</v>
+        <v>0.01127908864316354</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01150379655763085</v>
+        <v>0.01127908864316354</v>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>0.001371593694489198</v>
+        <v>0.001216117872644715</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0109343748221433</v>
+        <v>0.01050693613227744</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0109343748221433</v>
+        <v>0.01050693613227744</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0109343748221433</v>
+        <v>0.01050693613227744</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0109343748221433</v>
+        <v>0.01050693613227744</v>
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3694,10 +3694,10 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="n">
-        <v>-0.02065169403628625</v>
+        <v>-0.02050444133217765</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.009835379128646859</v>
+        <v>0.004153461382138454</v>
       </c>
     </row>
     <row r="40">
@@ -3712,65 +3712,65 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.0200123821162792</v>
+        <v>-0.02028908961156358</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>0.02611455044910543</v>
+        <v>0.02622841861713674</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.02332815057609362</v>
+        <v>-0.02365590517023621</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01482225780089992</v>
+        <v>-0.01450434480417379</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0287705974328119</v>
+        <v>-0.02896530355861214</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>-0.007934014461956018</v>
+        <v>-0.007655795922231836</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.01312067705257738</v>
+        <v>-0.01297205927088237</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>-0.02697658408032147</v>
+        <v>-0.02723867235354689</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.007716660620651294</v>
+        <v>-0.006812391763347223</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02425402439431464</v>
+        <v>0.02373763400550536</v>
       </c>
       <c r="P40" t="n">
-        <v>0.02425402439431464</v>
+        <v>0.02373763400550536</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02361461526398918</v>
+        <v>0.0231313525092541</v>
       </c>
       <c r="R40" t="n">
-        <v>0.02425402439431464</v>
+        <v>0.02373763400550536</v>
       </c>
       <c r="S40" t="n">
-        <v>0.02425402439431464</v>
+        <v>0.02373763400550536</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.01478260790213265</v>
+        <v>0.01489035457961418</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02259949478491137</v>
+        <v>0.02186313284252531</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02259949478491137</v>
+        <v>0.02186313284252531</v>
       </c>
       <c r="X40" t="n">
-        <v>0.02259949478491137</v>
+        <v>0.02186313284252531</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02259949478491137</v>
+        <v>0.02186313284252531</v>
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3778,10 +3778,10 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="n">
-        <v>-0.02854555007039824</v>
+        <v>-0.02874258786970351</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.01187792314765474</v>
+        <v>-0.0121972049358882</v>
       </c>
     </row>
     <row r="41">
@@ -3796,65 +3796,65 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.01056103235052773</v>
+        <v>-0.01069211457168458</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>0.01598964258638042</v>
+        <v>0.01600374217614968</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.01131672682675791</v>
+        <v>-0.01147345927493837</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0005019154130946239</v>
+        <v>0.0006508058180322326</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.01515509046587229</v>
+        <v>-0.0152505299860212</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0.00159220780530656</v>
+        <v>0.002085898643435945</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.001504859627387663</v>
+        <v>-0.001265522834620913</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>-0.009325116692005871</v>
+        <v>-0.0094696450507858</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0117083543665608</v>
+        <v>0.01323534460383911</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01864657003429498</v>
+        <v>0.01940103024804121</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01864657003429498</v>
+        <v>0.01940103024804121</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01874066712502164</v>
+        <v>0.01950552788422111</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01864657003429498</v>
+        <v>0.01940103024804121</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01864657003429498</v>
+        <v>0.01940103024804121</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.01322951264922853</v>
+        <v>0.01357255023890201</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01946219438365464</v>
+        <v>0.02013500538140021</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01946219438365464</v>
+        <v>0.02013500538140021</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01946219438365464</v>
+        <v>0.02013500538140021</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01946219438365464</v>
+        <v>0.02013500538140021</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -3862,10 +3862,10 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>-0.008614976104464593</v>
+        <v>-0.008673152218926087</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.01482196367244638</v>
+        <v>-0.008249522825980913</v>
       </c>
     </row>
     <row r="42">
@@ -3880,65 +3880,65 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.01612675841290707</v>
+        <v>-0.01666358389854335</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>0.01141128307294112</v>
+        <v>0.01162137032085481</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02007508113867672</v>
+        <v>-0.02040094968003798</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02119653222361159</v>
+        <v>0.02150639922825597</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01785172515895736</v>
+        <v>-0.01805493451419738</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>-0.01735682675550717</v>
+        <v>-0.01789690305187612</v>
       </c>
       <c r="K42" t="n">
-        <v>0.007529695134705213</v>
+        <v>0.007406394440255776</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>-0.01532852741016391</v>
+        <v>-0.01561316116852644</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02067160858622061</v>
+        <v>0.01544763021149508</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02104125564608721</v>
+        <v>0.02169650534786021</v>
       </c>
       <c r="P42" t="n">
-        <v>0.02104125564608721</v>
+        <v>0.02169650534786021</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02169800240960558</v>
+        <v>0.02247360886694436</v>
       </c>
       <c r="R42" t="n">
-        <v>0.02104125564608721</v>
+        <v>0.02169650534786021</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02104125564608721</v>
+        <v>0.02169650534786021</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.02145241456454557</v>
+        <v>0.02224231336969253</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02120056856509357</v>
+        <v>0.02197079415883176</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02120056856509357</v>
+        <v>0.02197079415883176</v>
       </c>
       <c r="X42" t="n">
-        <v>0.02120056856509357</v>
+        <v>0.02197079415883176</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02120056856509357</v>
+        <v>0.02197079415883176</v>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -3946,10 +3946,10 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="n">
-        <v>-0.01518273719569845</v>
+        <v>-0.01546187917847516</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.007628926889819742</v>
+        <v>0.005796469191858766</v>
       </c>
     </row>
     <row r="43">
@@ -3964,65 +3964,65 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1881228204344351</v>
+        <v>0.1871763371510534</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>-0.2266902076693851</v>
+        <v>-0.2264715944988637</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02230184168886599</v>
+        <v>-0.02251681990867279</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5906609059627052</v>
+        <v>0.590738376685535</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1179820547062594</v>
+        <v>0.1178201736088069</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>0.1278985472964941</v>
+        <v>0.1283357487814299</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4448765709924699</v>
+        <v>0.4439069657242786</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>-0.03638991980869163</v>
+        <v>-0.03663480885739234</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2504142458013957</v>
+        <v>0.2492680050505784</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.1101673010712587</v>
+        <v>-0.1033311306292452</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.1101673010712587</v>
+        <v>-0.1033311306292452</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.08895209649372852</v>
+        <v>-0.07983783141751324</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1101673010712587</v>
+        <v>-0.1033311306292452</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.1101673010712587</v>
+        <v>-0.1033311306292452</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>0.01533536411964266</v>
+        <v>0.01854320368572815</v>
       </c>
       <c r="V43" t="n">
-        <v>-0.08179457202364843</v>
+        <v>-0.07195968710238748</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.08179457202364843</v>
+        <v>-0.07195968710238748</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.08179457202364843</v>
+        <v>-0.07195968710238748</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.08179457202364843</v>
+        <v>-0.07195968710238748</v>
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4030,10 +4030,10 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="n">
-        <v>0.1141910976192838</v>
+        <v>0.1140932564677302</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.07557123525545446</v>
+        <v>0.0827753481110139</v>
       </c>
     </row>
     <row r="44">
@@ -4048,65 +4048,65 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.02718534842622787</v>
+        <v>-0.02743654880946195</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>0.02162845044399036</v>
+        <v>0.0217314125812565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0008001403401928886</v>
+        <v>0.0004356092334243693</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.007435920701547274</v>
+        <v>-0.007085749147429965</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.006293032820249525</v>
+        <v>-0.006514564100582563</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>-0.01699698191739189</v>
+        <v>-0.01756728089469124</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.02631269303080304</v>
+        <v>-0.02666473297058931</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>0.008218179626321423</v>
+        <v>0.007948103165924127</v>
       </c>
       <c r="N44" t="n">
-        <v>0.009236746504532146</v>
+        <v>0.005771543128137957</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01199265773923092</v>
+        <v>0.01279058076762323</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01199265773923092</v>
+        <v>0.01279058076762323</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01191303701316494</v>
+        <v>0.01275155782206231</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01199265773923092</v>
+        <v>0.01279058076762323</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01199265773923092</v>
+        <v>0.01279058076762323</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.02616455209409229</v>
+        <v>0.02602688859307554</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01560698358159027</v>
+        <v>0.0166208774328351</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01560698358159027</v>
+        <v>0.0166208774328351</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01560698358159027</v>
+        <v>0.0166208774328351</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01560698358159027</v>
+        <v>0.0166208774328351</v>
       </c>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -4114,10 +4114,10 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="n">
-        <v>-0.0195431213013311</v>
+        <v>-0.01961419297656771</v>
       </c>
       <c r="AF44" t="n">
-        <v>-0.03151763654051339</v>
+        <v>-0.02307217791488711</v>
       </c>
     </row>
     <row r="45">
@@ -4132,65 +4132,65 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.001169862784081426</v>
+        <v>-0.001705644836225793</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0.0104976674566606</v>
+        <v>0.01070079268403171</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.005640892019940604</v>
+        <v>-0.006024915408996616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.006901494200400705</v>
+        <v>0.007260956066438241</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.009814713194739791</v>
+        <v>-0.01004886587395463</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>-0.006273095771615309</v>
+        <v>-0.006694361067774442</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0037551133756163</v>
+        <v>0.003326026885041075</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>-0.0008191622478157097</v>
+        <v>-0.00116673374266935</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.009815888654578379</v>
+        <v>-0.009552141395412711</v>
       </c>
       <c r="O45" t="n">
-        <v>0.00555435648954521</v>
+        <v>0.005780981511239259</v>
       </c>
       <c r="P45" t="n">
-        <v>0.00555435648954521</v>
+        <v>0.005780981511239259</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.005100423109832051</v>
+        <v>0.005255848722233948</v>
       </c>
       <c r="R45" t="n">
-        <v>0.00555435648954521</v>
+        <v>0.005780981511239259</v>
       </c>
       <c r="S45" t="n">
-        <v>0.00555435648954521</v>
+        <v>0.005780981511239259</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>0.005502238598980302</v>
+        <v>0.005912218892488755</v>
       </c>
       <c r="V45" t="n">
-        <v>0.004580581230291677</v>
+        <v>0.004801865568074622</v>
       </c>
       <c r="W45" t="n">
-        <v>0.004580581230291677</v>
+        <v>0.004801865568074622</v>
       </c>
       <c r="X45" t="n">
-        <v>0.004580581230291677</v>
+        <v>0.004801865568074622</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.004580581230291677</v>
+        <v>0.004801865568074622</v>
       </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
@@ -4198,10 +4198,10 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="n">
-        <v>-0.007047494685011433</v>
+        <v>-0.007332268421290735</v>
       </c>
       <c r="AF45" t="n">
-        <v>-0.003296563370297109</v>
+        <v>-0.006959016374360654</v>
       </c>
     </row>
     <row r="46">
@@ -4216,65 +4216,65 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.01311917941811652</v>
+        <v>-0.01368516525140661</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>0.00591017084569375</v>
+        <v>0.00607932629117305</v>
       </c>
       <c r="F46" t="n">
-        <v>0.002565502007964618</v>
+        <v>0.002265029850601194</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004057956177069749</v>
+        <v>0.004349527085981083</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007503727300081866</v>
+        <v>0.007313116132524644</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>0.005064432430303589</v>
+        <v>0.004118241380729654</v>
       </c>
       <c r="K46" t="n">
-        <v>0.000786797839760029</v>
+        <v>4.013280160531206e-06</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>0.007624831280781968</v>
+        <v>0.007356083622243344</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.01703854843091502</v>
+        <v>-0.01650084335778434</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1258426619297449</v>
+        <v>0.125651650786066</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1258426619297449</v>
+        <v>0.125651650786066</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.125595937915074</v>
+        <v>0.1252310320492413</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1258426619297449</v>
+        <v>0.125651650786066</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1258426619297449</v>
+        <v>0.125651650786066</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.07926493457154818</v>
+        <v>0.08023062733722508</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1205087299332616</v>
+        <v>0.1196360274094411</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1205087299332616</v>
+        <v>0.1196360274094411</v>
       </c>
       <c r="X46" t="n">
-        <v>0.1205087299332616</v>
+        <v>0.1196360274094411</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1205087299332616</v>
+        <v>0.1196360274094411</v>
       </c>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -4282,10 +4282,10 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>-0.001213913947255238</v>
+        <v>-0.001474614394984576</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.0007408139971331602</v>
+        <v>0.008034246369369854</v>
       </c>
     </row>
     <row r="47">
@@ -4300,65 +4300,65 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0001000424814854928</v>
+        <v>0.0002468282018731281</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>0.003975875799409582</v>
+        <v>0.003951877022075081</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002480842771195296</v>
+        <v>0.002461283618451344</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0008849047600636577</v>
+        <v>0.0009073636202945447</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.002216192194021037</v>
+        <v>-0.00222691400907656</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>0.0002047251226956076</v>
+        <v>0.0009411315256452609</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00553923154378775</v>
+        <v>0.005984471951378877</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>0.004777818949143971</v>
+        <v>0.004786065791442631</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.01136354823050237</v>
+        <v>-0.01256430152072776</v>
       </c>
       <c r="O47" t="n">
-        <v>4.036523991472965e-05</v>
+        <v>7.411593896463755e-05</v>
       </c>
       <c r="P47" t="n">
-        <v>4.036523991472965e-05</v>
+        <v>7.411593896463755e-05</v>
       </c>
       <c r="Q47" t="n">
-        <v>-7.788390811415585e-05</v>
+        <v>-0.0001633943105357724</v>
       </c>
       <c r="R47" t="n">
-        <v>4.036523991472965e-05</v>
+        <v>7.411593896463755e-05</v>
       </c>
       <c r="S47" t="n">
-        <v>4.036523991472965e-05</v>
+        <v>7.411593896463755e-05</v>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>-0.002527242447288978</v>
+        <v>-0.002618036552721462</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.0001939109550601597</v>
+        <v>-7.439030697561227e-05</v>
       </c>
       <c r="W47" t="n">
-        <v>-0.0001939109550601597</v>
+        <v>-7.439030697561227e-05</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.0001939109550601597</v>
+        <v>-7.439030697561227e-05</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.0001939109550601597</v>
+        <v>-7.439030697561227e-05</v>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -4366,10 +4366,10 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="n">
-        <v>-0.0017601370934451</v>
+        <v>-0.001765237990609519</v>
       </c>
       <c r="AF47" t="n">
-        <v>-0.007593035629935112</v>
+        <v>0.004363187790527512</v>
       </c>
     </row>
     <row r="48">
@@ -4384,65 +4384,65 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.004650185835486425</v>
+        <v>0.00508638625145545</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>-0.01547662617757645</v>
+        <v>-0.01570105954004238</v>
       </c>
       <c r="F48" t="n">
-        <v>0.009182696179091761</v>
+        <v>0.009551408734056348</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01816432069126911</v>
+        <v>0.01779532611981304</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01181957294219949</v>
+        <v>0.01204610736184429</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>0.003448171026762376</v>
+        <v>0.003756704790268191</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01724342361869733</v>
+        <v>0.01773648378145935</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>0.01361939710871346</v>
+        <v>0.01396338180653527</v>
       </c>
       <c r="N48" t="n">
-        <v>0.00369806847051207</v>
+        <v>0.006011524745909027</v>
       </c>
       <c r="O48" t="n">
-        <v>0.004250902905671171</v>
+        <v>0.01931200387648015</v>
       </c>
       <c r="P48" t="n">
-        <v>0.004250902905671171</v>
+        <v>0.01931200387648015</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.005000213776248648</v>
+        <v>0.02013369066134763</v>
       </c>
       <c r="R48" t="n">
-        <v>0.004250902905671171</v>
+        <v>0.01931200387648015</v>
       </c>
       <c r="S48" t="n">
-        <v>0.004250902905671171</v>
+        <v>0.01931200387648015</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.002239519884769271</v>
+        <v>0.0100863449474538</v>
       </c>
       <c r="V48" t="n">
-        <v>0.003651445199003787</v>
+        <v>0.0177416675896667</v>
       </c>
       <c r="W48" t="n">
-        <v>0.003651445199003787</v>
+        <v>0.0177416675896667</v>
       </c>
       <c r="X48" t="n">
-        <v>0.003651445199003787</v>
+        <v>0.0177416675896667</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.003651445199003787</v>
+        <v>0.0177416675896667</v>
       </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -4450,10 +4450,10 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="n">
-        <v>0.015246561533195</v>
+        <v>0.01561457592058304</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.0237291628313658</v>
+        <v>0.008110920996436838</v>
       </c>
     </row>
     <row r="49">
@@ -4468,65 +4468,65 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.01135443463242469</v>
+        <v>-0.01154177018967081</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>0.01210611447619656</v>
+        <v>0.01215652080626083</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01049084746120893</v>
+        <v>-0.01065166583406663</v>
       </c>
       <c r="G49" t="n">
-        <v>0.005228789623470913</v>
+        <v>0.005380336151213445</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.004163949332483544</v>
+        <v>-0.00426807626672305</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>0.02102560113463269</v>
+        <v>0.02212235234089409</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02433065647943515</v>
+        <v>0.02486106723444268</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>-0.001964142360284782</v>
+        <v>-0.002090998739639949</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.002972659028106912</v>
+        <v>-0.003694774852487418</v>
       </c>
       <c r="O49" t="n">
-        <v>0.005115431153457583</v>
+        <v>0.005087923691516947</v>
       </c>
       <c r="P49" t="n">
-        <v>0.005115431153457583</v>
+        <v>0.005087923691516947</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.005150856149621281</v>
+        <v>0.005079770603190824</v>
       </c>
       <c r="R49" t="n">
-        <v>0.005115431153457583</v>
+        <v>0.005087923691516947</v>
       </c>
       <c r="S49" t="n">
-        <v>0.005115431153457583</v>
+        <v>0.005087923691516947</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>-0.002375014834899753</v>
+        <v>-0.002413246464529859</v>
       </c>
       <c r="V49" t="n">
-        <v>0.003665162900527285</v>
+        <v>0.003399362535974501</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003665162900527285</v>
+        <v>0.003399362535974501</v>
       </c>
       <c r="X49" t="n">
-        <v>0.003665162900527285</v>
+        <v>0.003399362535974501</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.003665162900527285</v>
+        <v>0.003399362535974501</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="n">
-        <v>-0.01063062792630555</v>
+        <v>-0.01066716397868656</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.01578747442165504</v>
+        <v>-0.01090911240436449</v>
       </c>
     </row>
     <row r="50">
@@ -4552,65 +4552,65 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.003468410176633166</v>
+        <v>0.003904758108190323</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>0.003433916459162181</v>
+        <v>0.00329928800397152</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.004973109772014428</v>
+        <v>-0.004589713623588544</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.006829926849715682</v>
+        <v>-0.007187769119510764</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.01121171653298247</v>
+        <v>-0.01097322725492909</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>0.02272316235155795</v>
+        <v>0.02190727594829103</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01190106535112545</v>
+        <v>0.01138901354356054</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>-0.003184455858758787</v>
+        <v>-0.00290492277219691</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.0009386362283077155</v>
+        <v>-0.001650418028249025</v>
       </c>
       <c r="O50" t="n">
-        <v>0.004638251539863796</v>
+        <v>0.004081801987272079</v>
       </c>
       <c r="P50" t="n">
-        <v>0.004638251539863796</v>
+        <v>0.004081801987272079</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.005563015124033211</v>
+        <v>0.005110717932428717</v>
       </c>
       <c r="R50" t="n">
-        <v>0.004638251539863796</v>
+        <v>0.004081801987272079</v>
       </c>
       <c r="S50" t="n">
-        <v>0.004638251539863796</v>
+        <v>0.004081801987272079</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>-0.00895915538449827</v>
+        <v>-0.009106156396246255</v>
       </c>
       <c r="V50" t="n">
-        <v>0.001431725192577531</v>
+        <v>0.0007379708455188338</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001431725192577531</v>
+        <v>0.0007379708455188338</v>
       </c>
       <c r="X50" t="n">
-        <v>0.001431725192577531</v>
+        <v>0.0007379708455188338</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.001431725192577531</v>
+        <v>0.0007379708455188338</v>
       </c>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
@@ -4618,10 +4618,10 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
-        <v>-0.007150028517107984</v>
+        <v>-0.006982593399303735</v>
       </c>
       <c r="AF50" t="n">
-        <v>-0.01065503127035971</v>
+        <v>-0.009284594579383782</v>
       </c>
     </row>
     <row r="51">
@@ -4636,65 +4636,65 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.01406610820363353</v>
+        <v>-0.01408841221153649</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>0.003931888802730535</v>
+        <v>0.003897447995897919</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0008706121536432137</v>
+        <v>-0.000942308677692347</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.00105403976353494</v>
+        <v>-0.0009943381837735272</v>
       </c>
       <c r="H51" t="n">
-        <v>0.003120381867489945</v>
+        <v>0.003076863195074527</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>0.01307427382235151</v>
+        <v>0.01387170919486837</v>
       </c>
       <c r="K51" t="n">
-        <v>0.003321810292430635</v>
+        <v>0.003821717720868708</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>0.005257755704802426</v>
+        <v>0.005229911537196461</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.005765771177962347</v>
+        <v>-0.004109092798073885</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.001095534929314795</v>
+        <v>-0.001184085743363429</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.001095534929314795</v>
+        <v>-0.001184085743363429</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.001509782292592973</v>
+        <v>-0.001648280801931232</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.001095534929314795</v>
+        <v>-0.001184085743363429</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.001095534929314795</v>
+        <v>-0.001184085743363429</v>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>-0.004312383341013942</v>
+        <v>-0.004602302968092119</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.001430634554281805</v>
+        <v>-0.001640305793612232</v>
       </c>
       <c r="W51" t="n">
-        <v>-0.001430634554281805</v>
+        <v>-0.001640305793612232</v>
       </c>
       <c r="X51" t="n">
-        <v>-0.001430634554281805</v>
+        <v>-0.001640305793612232</v>
       </c>
       <c r="Y51" t="n">
-        <v>-0.001430634554281805</v>
+        <v>-0.001640305793612232</v>
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -4702,10 +4702,10 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="n">
-        <v>0.01144209096321065</v>
+        <v>0.01152464945298598</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0270040846104395</v>
+        <v>0.03290837277233491</v>
       </c>
     </row>
   </sheetData>
